--- a/reports/compatibility_test_report.xlsx
+++ b/reports/compatibility_test_report.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,9 +946,67 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-14 17:56:14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>test_course_registration_for_student</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Windows 11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>latest</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="K9" s="6" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=4c1153bc3d3b9e380b32602e93847cc8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K8" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/compatibility_test_report.xlsx
+++ b/reports/compatibility_test_report.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,10 +1003,126 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-14 18:18:15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Windows 11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>latest</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=2c4ede369ec3ceb4344ed60863690808</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-14 18:18:36</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Windows 11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>latest</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="K11" s="6" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=1245a5e9d650677534c6a3a7980692fb</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K8" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K9" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K10" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/compatibility_test_report.xlsx
+++ b/reports/compatibility_test_report.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,12 +1117,302 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-09-02 21:28:25</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Windows 11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>latest</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="K12" s="6" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=75eed2f4e169758b46394b3f13936947</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-09-02 21:29:23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>iPhone 16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18.1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Safari</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="K13" s="6" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=60f6bfd1-bf8c-468e-bd3e-8e3eca16c7d4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-09-02 21:30:39</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Galaxy S25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="K14" s="6" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=dc11b63b-e7bf-48ba-bc53-0ebc29199e4d</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-09-02 21:31:53</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Galaxy Tab s8+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>16.28</t>
+        </is>
+      </c>
+      <c r="K15" s="6" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=ef8f74e6-107b-4abe-bc07-b6a8664fc1af</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-09-02 21:32:32</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>iPad (9th generation)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Safari</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=5b1d0dd2-def6-4c88-a0f1-040942e78cfd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K8" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K9" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K10" r:id="rId3"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K11" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K12" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K13" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K14" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K15" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K16" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/compatibility_test_report.xlsx
+++ b/reports/compatibility_test_report.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,6 +812,291 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-09-10 16:20:28</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Windows 11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>latest</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=b8f3f5b2888e178aef62867cf599fed2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-09-10 16:21:24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>iPhone 16</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>18.1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Safari</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=a0a8945f-7f49-477a-a4bf-bdfa4506ccaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-09-10 16:22:49</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Galaxy S25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=9d6c59d3-fc9c-48d5-8e89-d1f03fe21b48</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-09-10 16:24:06</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Galaxy Tab s8+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=03b3bec3-6101-4279-86ae-d67bd8085b6a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-09-10 16:24:48</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>iPad (9th generation)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Safari</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=ff08eb7c-ade9-46d1-8812-b89bad835bcf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K2" r:id="rId1"/>
@@ -819,6 +1104,11 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K4" r:id="rId3"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K5" r:id="rId4"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/compatibility_test_report.xlsx
+++ b/reports/compatibility_test_report.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,63 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-09-10 16:33:34</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>test_login</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Virtual</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Windows 11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>latest</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>https://automation.lambdatest.com/logs/?sessionID=9d26cb85cbdf9944da39bd0798a4a4b0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K2" r:id="rId1"/>
@@ -1109,6 +1166,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K9" r:id="rId8"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K10" r:id="rId9"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
